--- a/ComputerConfigurator/Resources/HDD.xlsx
+++ b/ComputerConfigurator/Resources/HDD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Название</t>
   </si>
@@ -171,7 +171,7 @@
     <t>Toshiba L200 [HDWJ105UZSVA]</t>
   </si>
   <si>
-    <t>end</t>
+    <t>Seagate BarraCuda [ST5000LM000]</t>
   </si>
 </sst>
 </file>
@@ -534,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1095,11 +1095,6 @@
       </c>
       <c r="H21" s="2" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
